--- a/CodeBook_9_15_2020.xlsx
+++ b/CodeBook_9_15_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachel/Documents/GitHub/COVID-19-US-State-Policy-Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5732A6CD-92A1-5543-9F60-5FC56225982D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD135BA-C5A1-A349-8730-41D54C099DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="6280" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="3340" windowWidth="28080" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="568">
   <si>
     <t>people/year</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>Waived one week waiting period for unemployment insurance</t>
-  </si>
-  <si>
-    <t>Prior to pandemic, no state unemployment waiting period; or date waiting period waived not found</t>
   </si>
   <si>
     <t>Suspended elective medical/dental procedures</t>
@@ -1365,15 +1362,9 @@
     <t xml:space="preserve">The date a state waived the one week waiting period for unemployment insurance benefits. Did not include guidance or recommendations. Order must apply to entire state. </t>
   </si>
   <si>
-    <t xml:space="preserve">If a state waived the work search requirement for unemployment insurance benefits during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
-  </si>
-  <si>
     <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to anyone who is quarantined and/or taking care of someone who is quarantined during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
   </si>
   <si>
-    <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to anyone who is at high risk for COVID-19, and is undergoing preventive quarantine during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
-  </si>
-  <si>
     <t xml:space="preserve">If a state expanded eligibility of unemployment insurance to those who have lost childcare during the pandemic in response to daycare/school closures. Did not include guidance or recommendations. Order must apply to entire state. </t>
   </si>
   <si>
@@ -1768,13 +1759,37 @@
   </si>
   <si>
     <t>Incarceration</t>
+  </si>
+  <si>
+    <t>0 = never waived work search requirement; 1 = work search requirement remains waived; 2 = reinstated work search requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state waived the work search requirement for unemployment insurance benefits at some point during the pandemic. Did not include guidance or recommendations. Order must apply to entire state. </t>
+  </si>
+  <si>
+    <t>REI_WKSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a state reinstated the work search requirement for unemployment benefits at some point during the pandeminc. Did not include guidence or recommendations. Order must apply to the entire state. </t>
+  </si>
+  <si>
+    <t>If a state explicitly defines individuals at high risk of COVID-19 who are undergoing preventive quarantine during the pandemic to be eligible for unemployment insurance. Did not include guidance or recommendations. Order must apply to entire state</t>
+  </si>
+  <si>
+    <t>No state unemployment waiting period prior to pandemic; or date waiting period waived not found</t>
+  </si>
+  <si>
+    <t>Reinstated work search requirement for unemployent insurance</t>
+  </si>
+  <si>
+    <t>0: policy not implemented;  1: Could not locate the date the policy started but did locate evidence that the policy was in place.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1860,6 +1875,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3C4043"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1950,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2067,6 +2088,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2348,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I148"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="69" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="B117" zoomScale="69" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -2368,45 +2395,45 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -2417,16 +2444,16 @@
     </row>
     <row r="3" spans="1:9" ht="409.6">
       <c r="A3" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>11</v>
@@ -2435,47 +2462,47 @@
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="342">
       <c r="A4" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>33</v>
@@ -2487,20 +2514,20 @@
         <v>4</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="75">
       <c r="A6" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>31</v>
@@ -2512,22 +2539,22 @@
         <v>4</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="A7" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>31</v>
@@ -2539,22 +2566,22 @@
         <v>4</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="45">
       <c r="A8" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -2566,20 +2593,20 @@
         <v>4</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="A9" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>31</v>
@@ -2591,22 +2618,22 @@
         <v>4</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="A10" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>29</v>
@@ -2618,22 +2645,22 @@
         <v>4</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45">
       <c r="A11" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>29</v>
@@ -2645,22 +2672,22 @@
         <v>4</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="A12" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>30</v>
@@ -2672,22 +2699,22 @@
         <v>4</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="19" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
       <c r="A13" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>30</v>
@@ -2699,22 +2726,22 @@
         <v>4</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="19" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="90">
       <c r="A14" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>29</v>
@@ -2726,22 +2753,22 @@
         <v>3</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="90">
       <c r="A15" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -2753,22 +2780,22 @@
         <v>4</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30">
       <c r="A16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
@@ -2780,22 +2807,22 @@
         <v>3</v>
       </c>
       <c r="G16" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="45">
       <c r="A17" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
@@ -2807,22 +2834,22 @@
         <v>3</v>
       </c>
       <c r="G17" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="42">
       <c r="A18" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>28</v>
@@ -2834,22 +2861,22 @@
         <v>3</v>
       </c>
       <c r="G18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="56">
       <c r="A19" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>28</v>
@@ -2861,20 +2888,20 @@
         <v>4</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="70">
       <c r="A20" s="6" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>28</v>
@@ -2886,20 +2913,20 @@
         <v>4</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="60">
       <c r="A21" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>28</v>
@@ -2911,20 +2938,20 @@
         <v>4</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="30">
       <c r="A22" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>27</v>
@@ -2936,22 +2963,22 @@
         <v>3</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
@@ -2963,20 +2990,20 @@
         <v>4</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
@@ -2988,20 +3015,20 @@
         <v>4</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9" ht="30">
       <c r="A25" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
@@ -3013,24 +3040,24 @@
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H25" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I25" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="45">
       <c r="A26" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>26</v>
@@ -3042,20 +3069,20 @@
         <v>4</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="19"/>
     </row>
     <row r="27" spans="1:9" ht="45">
       <c r="A27" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>25</v>
@@ -3067,20 +3094,20 @@
         <v>4</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="19"/>
     </row>
     <row r="28" spans="1:9" ht="60">
       <c r="A28" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>25</v>
@@ -3092,22 +3119,22 @@
         <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I28" s="19"/>
     </row>
     <row r="29" spans="1:9" ht="45">
       <c r="A29" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>26</v>
@@ -3119,20 +3146,20 @@
         <v>4</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="45">
       <c r="A30" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>25</v>
@@ -3144,20 +3171,20 @@
         <v>4</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="45">
       <c r="A31" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>26</v>
@@ -3169,20 +3196,20 @@
         <v>4</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="19"/>
     </row>
     <row r="32" spans="1:9" ht="45">
       <c r="A32" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>25</v>
@@ -3194,20 +3221,20 @@
         <v>4</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="19"/>
     </row>
     <row r="33" spans="1:9" ht="90">
       <c r="A33" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>26</v>
@@ -3219,20 +3246,20 @@
         <v>4</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="75">
       <c r="A34" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>25</v>
@@ -3244,20 +3271,20 @@
         <v>4</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="1:9" ht="45">
       <c r="A35" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>25</v>
@@ -3269,20 +3296,20 @@
         <v>4</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="45">
       <c r="A36" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>25</v>
@@ -3294,20 +3321,20 @@
         <v>4</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="19"/>
     </row>
     <row r="37" spans="1:9" ht="45">
       <c r="A37" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>25</v>
@@ -3319,22 +3346,22 @@
         <v>4</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="90">
       <c r="A38" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>24</v>
@@ -3346,22 +3373,22 @@
         <v>4</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="60">
       <c r="A39" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>24</v>
@@ -3373,22 +3400,22 @@
         <v>4</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H39" s="18"/>
       <c r="I39" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="60">
       <c r="A40" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>24</v>
@@ -3400,22 +3427,22 @@
         <v>4</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H40" s="18"/>
       <c r="I40" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75">
       <c r="A41" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>24</v>
@@ -3427,22 +3454,22 @@
         <v>4</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H41" s="18"/>
       <c r="I41" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60">
       <c r="A42" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>298</v>
-      </c>
       <c r="C42" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>24</v>
@@ -3454,20 +3481,20 @@
         <v>4</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H42" s="18"/>
       <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" ht="105">
       <c r="A43" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>23</v>
@@ -3479,22 +3506,22 @@
         <v>4</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="105">
       <c r="A44" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>23</v>
@@ -3506,20 +3533,20 @@
         <v>4</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H44" s="18"/>
       <c r="I44" s="19"/>
     </row>
     <row r="45" spans="1:9" ht="75">
       <c r="A45" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>23</v>
@@ -3531,20 +3558,20 @@
         <v>4</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H45" s="18"/>
       <c r="I45" s="19"/>
     </row>
     <row r="46" spans="1:9" ht="90">
       <c r="A46" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>22</v>
@@ -3556,20 +3583,20 @@
         <v>4</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="19"/>
     </row>
     <row r="47" spans="1:9" ht="90">
       <c r="A47" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>22</v>
@@ -3581,20 +3608,20 @@
         <v>4</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="19"/>
     </row>
     <row r="48" spans="1:9" ht="135">
       <c r="A48" s="6" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>22</v>
@@ -3606,23 +3633,23 @@
         <v>4</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="19"/>
     </row>
     <row r="49" spans="1:9" ht="90">
       <c r="A49" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D49" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>4</v>
@@ -3631,23 +3658,23 @@
         <v>10</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="60">
       <c r="A50" s="6" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>4</v>
@@ -3656,23 +3683,23 @@
         <v>12</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" ht="45">
       <c r="A51" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>4</v>
@@ -3681,20 +3708,20 @@
         <v>12</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="19"/>
     </row>
     <row r="52" spans="1:9" ht="45">
       <c r="A52" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>22</v>
@@ -3706,20 +3733,20 @@
         <v>4</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="19"/>
     </row>
     <row r="53" spans="1:9" ht="60">
       <c r="A53" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>22</v>
@@ -3731,20 +3758,20 @@
         <v>4</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="19"/>
     </row>
     <row r="54" spans="1:9" ht="60">
       <c r="A54" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="33" t="s">
         <v>22</v>
@@ -3756,22 +3783,22 @@
         <v>4</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H54" s="33"/>
       <c r="I54" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A55" s="31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>22</v>
@@ -3783,22 +3810,22 @@
         <v>4</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A56" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>22</v>
@@ -3810,22 +3837,22 @@
         <v>4</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A57" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>22</v>
@@ -3837,22 +3864,22 @@
         <v>4</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A58" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>22</v>
@@ -3864,22 +3891,22 @@
         <v>4</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A59" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>22</v>
@@ -3891,22 +3918,22 @@
         <v>4</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A60" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>22</v>
@@ -3918,22 +3945,22 @@
         <v>4</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H60" s="32"/>
       <c r="I60" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A61" s="3" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>22</v>
@@ -3945,22 +3972,22 @@
         <v>4</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H61" s="32"/>
       <c r="I61" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A62" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>22</v>
@@ -3972,22 +3999,22 @@
         <v>4</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A63" s="3" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>22</v>
@@ -3999,22 +4026,22 @@
         <v>4</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="23" customFormat="1" ht="45">
       <c r="A64" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>22</v>
@@ -4026,22 +4053,22 @@
         <v>4</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A65" s="3" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>22</v>
@@ -4053,22 +4080,22 @@
         <v>4</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="23" customFormat="1" ht="60">
       <c r="A66" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>22</v>
@@ -4080,22 +4107,22 @@
         <v>4</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="3" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="45">
       <c r="A67" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D67" s="37" t="s">
         <v>22</v>
@@ -4107,20 +4134,20 @@
         <v>4</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H67" s="37"/>
       <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="60">
       <c r="A68" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>21</v>
@@ -4132,22 +4159,22 @@
         <v>4</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="19" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="90">
       <c r="A69" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>21</v>
@@ -4159,22 +4186,22 @@
         <v>4</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="60">
       <c r="A70" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>21</v>
@@ -4186,22 +4213,22 @@
         <v>4</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="90">
       <c r="A71" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>21</v>
@@ -4213,24 +4240,24 @@
         <v>3</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I71" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="45">
       <c r="A72" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>17</v>
@@ -4242,22 +4269,22 @@
         <v>4</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="19" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="30">
       <c r="A73" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>17</v>
@@ -4269,20 +4296,20 @@
         <v>4</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="19"/>
     </row>
     <row r="74" spans="1:9" ht="30">
       <c r="A74" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>17</v>
@@ -4294,24 +4321,24 @@
         <v>3</v>
       </c>
       <c r="G74" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H74" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I74" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="45">
       <c r="A75" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>17</v>
@@ -4323,20 +4350,20 @@
         <v>4</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="19"/>
     </row>
     <row r="76" spans="1:9" ht="45">
       <c r="A76" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>17</v>
@@ -4348,20 +4375,20 @@
         <v>4</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="19"/>
     </row>
     <row r="77" spans="1:9" ht="90">
       <c r="A77" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>17</v>
@@ -4373,24 +4400,24 @@
         <v>3</v>
       </c>
       <c r="G77" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H77" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I77" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="60">
       <c r="A78" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>17</v>
@@ -4402,24 +4429,24 @@
         <v>3</v>
       </c>
       <c r="G78" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H78" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I78" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="30">
       <c r="A79" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>20</v>
@@ -4431,22 +4458,22 @@
         <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I79" s="19"/>
     </row>
     <row r="80" spans="1:9" ht="30">
       <c r="A80" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>20</v>
@@ -4458,22 +4485,22 @@
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I80" s="19"/>
     </row>
     <row r="81" spans="1:9" ht="30">
       <c r="A81" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>20</v>
@@ -4485,22 +4512,22 @@
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I81" s="19"/>
     </row>
     <row r="82" spans="1:9" ht="30">
       <c r="A82" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>20</v>
@@ -4512,22 +4539,22 @@
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="30">
       <c r="A83" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>20</v>
@@ -4539,22 +4566,22 @@
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I83" s="19"/>
     </row>
     <row r="84" spans="1:9" ht="30">
       <c r="A84" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>20</v>
@@ -4566,22 +4593,22 @@
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I84" s="19"/>
     </row>
     <row r="85" spans="1:9" ht="30">
       <c r="A85" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>20</v>
@@ -4593,22 +4620,22 @@
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I85" s="19"/>
     </row>
     <row r="86" spans="1:9" ht="30">
       <c r="A86" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>20</v>
@@ -4620,22 +4647,22 @@
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I86" s="19"/>
     </row>
     <row r="87" spans="1:9" ht="30">
       <c r="A87" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>20</v>
@@ -4647,22 +4674,22 @@
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I87" s="19"/>
     </row>
     <row r="88" spans="1:9" ht="30">
       <c r="A88" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>20</v>
@@ -4674,22 +4701,22 @@
         <v>3</v>
       </c>
       <c r="G88" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I88" s="19"/>
     </row>
     <row r="89" spans="1:9" ht="30">
       <c r="A89" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>20</v>
@@ -4701,22 +4728,22 @@
         <v>3</v>
       </c>
       <c r="G89" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I89" s="19"/>
     </row>
     <row r="90" spans="1:9" ht="30">
       <c r="A90" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>20</v>
@@ -4728,22 +4755,22 @@
         <v>3</v>
       </c>
       <c r="G90" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H90" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I90" s="19"/>
     </row>
     <row r="91" spans="1:9" ht="30">
       <c r="A91" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>20</v>
@@ -4755,22 +4782,22 @@
         <v>3</v>
       </c>
       <c r="G91" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I91" s="19"/>
     </row>
     <row r="92" spans="1:9" ht="30">
       <c r="A92" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>20</v>
@@ -4782,22 +4809,22 @@
         <v>3</v>
       </c>
       <c r="G92" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I92" s="19"/>
     </row>
     <row r="93" spans="1:9" ht="30">
       <c r="A93" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>20</v>
@@ -4809,22 +4836,22 @@
         <v>3</v>
       </c>
       <c r="G93" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I93" s="19"/>
     </row>
     <row r="94" spans="1:9" ht="30">
       <c r="A94" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>20</v>
@@ -4836,22 +4863,22 @@
         <v>3</v>
       </c>
       <c r="G94" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I94" s="19"/>
     </row>
     <row r="95" spans="1:9" ht="30">
       <c r="A95" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>20</v>
@@ -4863,22 +4890,22 @@
         <v>3</v>
       </c>
       <c r="G95" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I95" s="19"/>
     </row>
     <row r="96" spans="1:9" ht="30">
       <c r="A96" s="9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>20</v>
@@ -4890,22 +4917,22 @@
         <v>3</v>
       </c>
       <c r="G96" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I96" s="19"/>
     </row>
     <row r="97" spans="1:9" ht="30">
       <c r="A97" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D97" s="9" t="s">
         <v>20</v>
@@ -4917,22 +4944,22 @@
         <v>3</v>
       </c>
       <c r="G97" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I97" s="19"/>
     </row>
     <row r="98" spans="1:9" ht="30">
       <c r="A98" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D98" s="9" t="s">
         <v>20</v>
@@ -4944,22 +4971,22 @@
         <v>3</v>
       </c>
       <c r="G98" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H98" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H98" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I98" s="19"/>
     </row>
     <row r="99" spans="1:9" ht="30">
       <c r="A99" s="27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C99" s="28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>20</v>
@@ -4971,22 +4998,22 @@
         <v>3</v>
       </c>
       <c r="G99" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H99" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H99" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I99" s="19"/>
     </row>
     <row r="100" spans="1:9" ht="30">
       <c r="A100" s="27" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C100" s="28" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>20</v>
@@ -4998,22 +5025,22 @@
         <v>3</v>
       </c>
       <c r="G100" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H100" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H100" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I100" s="19"/>
     </row>
     <row r="101" spans="1:9" ht="30">
       <c r="A101" s="27" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>20</v>
@@ -5025,22 +5052,22 @@
         <v>3</v>
       </c>
       <c r="G101" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H101" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I101" s="19"/>
     </row>
     <row r="102" spans="1:9" ht="30">
       <c r="A102" s="27" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C102" s="28" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>20</v>
@@ -5052,22 +5079,22 @@
         <v>3</v>
       </c>
       <c r="G102" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H102" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H102" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I102" s="19"/>
     </row>
     <row r="103" spans="1:9" ht="30">
       <c r="A103" s="27" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>20</v>
@@ -5079,22 +5106,22 @@
         <v>3</v>
       </c>
       <c r="G103" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H103" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I103" s="19"/>
     </row>
     <row r="104" spans="1:9" ht="45">
       <c r="A104" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>19</v>
@@ -5106,20 +5133,20 @@
         <v>4</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="19"/>
     </row>
     <row r="105" spans="1:9" ht="45">
       <c r="A105" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>19</v>
@@ -5131,23 +5158,23 @@
         <v>4</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="19"/>
     </row>
     <row r="106" spans="1:9" ht="30">
       <c r="A106" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>562</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>12</v>
@@ -5156,20 +5183,20 @@
         <v>4</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="19"/>
     </row>
     <row r="107" spans="1:9" ht="75">
       <c r="A107" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>19</v>
@@ -5181,24 +5208,24 @@
         <v>3</v>
       </c>
       <c r="G107" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H107" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H107" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I107" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="75">
       <c r="A108" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>19</v>
@@ -5210,24 +5237,24 @@
         <v>3</v>
       </c>
       <c r="G108" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H108" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H108" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I108" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="75">
       <c r="A109" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>19</v>
@@ -5239,24 +5266,24 @@
         <v>3</v>
       </c>
       <c r="G109" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H109" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H109" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I109" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="75">
       <c r="A110" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>19</v>
@@ -5268,24 +5295,24 @@
         <v>3</v>
       </c>
       <c r="G110" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H110" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I110" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="45">
       <c r="A111" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>17</v>
@@ -5297,20 +5324,20 @@
         <v>4</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="19"/>
     </row>
     <row r="112" spans="1:9" ht="45">
       <c r="A112" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>17</v>
@@ -5322,20 +5349,20 @@
         <v>4</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="19"/>
     </row>
     <row r="113" spans="1:9" ht="75">
       <c r="A113" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>59</v>
+        <v>565</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>18</v>
@@ -5347,22 +5374,22 @@
         <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H113" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>292</v>
       </c>
       <c r="I113" s="19"/>
     </row>
     <row r="114" spans="1:9" ht="60">
       <c r="A114" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>18</v>
@@ -5374,22 +5401,22 @@
         <v>4</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="60">
       <c r="A115" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>428</v>
+        <v>561</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>18</v>
@@ -5401,22 +5428,22 @@
         <v>3</v>
       </c>
       <c r="G115" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="75">
+    <row r="116" spans="1:9" ht="133">
       <c r="A116" s="6" t="s">
-        <v>167</v>
+        <v>562</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>56</v>
+        <v>566</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>18</v>
@@ -5427,25 +5454,23 @@
       <c r="F116" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H116" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I116" s="20" t="s">
-        <v>279</v>
-      </c>
+      <c r="G116" s="6">
+        <v>2</v>
+      </c>
+      <c r="H116" s="42" t="s">
+        <v>560</v>
+      </c>
+      <c r="I116" s="43"/>
     </row>
     <row r="117" spans="1:9" ht="75">
       <c r="A117" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>18</v>
@@ -5457,24 +5482,24 @@
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H117" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H117" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I117" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="75">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="90">
       <c r="A118" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>431</v>
+        <v>564</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>18</v>
@@ -5486,24 +5511,24 @@
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H118" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H118" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I118" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="60">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="75">
       <c r="A119" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D119" s="6" t="s">
         <v>18</v>
@@ -5515,24 +5540,24 @@
         <v>3</v>
       </c>
       <c r="G119" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H119" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H119" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I119" s="20" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="30">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="60">
       <c r="A120" s="6" t="s">
         <v>163</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>361</v>
+        <v>429</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>18</v>
@@ -5544,49 +5569,51 @@
         <v>3</v>
       </c>
       <c r="G120" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H120" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H120" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I120" s="19"/>
-    </row>
-    <row r="121" spans="1:9" ht="45">
+      <c r="I120" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="30">
       <c r="A121" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="H121" s="6"/>
-      <c r="I121" s="20" t="s">
-        <v>280</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I121" s="19"/>
     </row>
     <row r="122" spans="1:9" ht="45">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>363</v>
+        <v>51</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="D122" s="6" t="s">
         <v>18</v>
@@ -5598,19 +5625,22 @@
         <v>7</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H122" s="6"/>
-    </row>
-    <row r="123" spans="1:9" ht="60">
+      <c r="I122" s="20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="45">
       <c r="A123" s="6" t="s">
         <v>160</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>18</v>
@@ -5619,26 +5649,25 @@
         <v>8</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H123" s="6"/>
-      <c r="I123" s="19"/>
     </row>
     <row r="124" spans="1:9" ht="60">
       <c r="A124" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>8</v>
@@ -5647,49 +5676,47 @@
         <v>6</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H124" s="6"/>
-      <c r="I124" s="25" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="45">
+      <c r="I124" s="19"/>
+    </row>
+    <row r="125" spans="1:9" ht="60">
       <c r="A125" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>434</v>
+        <v>48</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H125" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I125" s="19"/>
-    </row>
-    <row r="126" spans="1:9" ht="30">
+        <v>6</v>
+      </c>
+      <c r="G125" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H125" s="6"/>
+      <c r="I125" s="25" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="45">
       <c r="A126" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>365</v>
+        <v>47</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>431</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>16</v>
@@ -5701,9 +5728,11 @@
         <v>4</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H126" s="6"/>
+        <v>531</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I126" s="19"/>
     </row>
     <row r="127" spans="1:9" ht="30">
@@ -5711,10 +5740,10 @@
         <v>156</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C127" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>16</v>
@@ -5726,7 +5755,7 @@
         <v>4</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H127" s="6"/>
       <c r="I127" s="19"/>
@@ -5736,10 +5765,10 @@
         <v>155</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>16</v>
@@ -5751,7 +5780,7 @@
         <v>4</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H128" s="6"/>
       <c r="I128" s="19"/>
@@ -5761,10 +5790,10 @@
         <v>154</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>16</v>
@@ -5776,20 +5805,20 @@
         <v>4</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="19"/>
     </row>
-    <row r="130" spans="1:9" ht="45">
+    <row r="130" spans="1:9" ht="30">
       <c r="A130" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>16</v>
@@ -5801,48 +5830,44 @@
         <v>4</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H130" s="6"/>
       <c r="I130" s="19"/>
     </row>
-    <row r="131" spans="1:9" ht="60">
+    <row r="131" spans="1:9" ht="45">
       <c r="A131" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B131" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>380</v>
+      <c r="B131" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="H131" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="I131" s="19" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" ht="30">
+        <v>4</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="H131" s="6"/>
+      <c r="I131" s="19"/>
+    </row>
+    <row r="132" spans="1:9" ht="60">
       <c r="A132" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="B132" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>379</v>
       </c>
       <c r="D132" s="6" t="s">
@@ -5855,76 +5880,78 @@
         <v>3</v>
       </c>
       <c r="G132" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="H132" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H132" s="6" t="s">
-        <v>292</v>
-      </c>
       <c r="I132" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="30">
       <c r="A133" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C133" s="11" t="s">
-        <v>370</v>
+        <v>40</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>378</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E133" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>306</v>
+        <v>3</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H133" s="6"/>
-      <c r="I133" s="19"/>
+        <v>290</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="I133" s="19" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="134" spans="1:9" ht="15">
       <c r="A134" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>38</v>
+      <c r="B134" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H134" s="6"/>
-      <c r="I134" s="19" t="s">
-        <v>284</v>
-      </c>
+      <c r="I134" s="19"/>
     </row>
     <row r="135" spans="1:9" ht="15">
       <c r="A135" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C135" s="11" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>13</v>
@@ -5933,23 +5960,25 @@
         <v>8</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>305</v>
+        <v>2</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H135" s="6"/>
-      <c r="I135" s="19"/>
-    </row>
-    <row r="136" spans="1:9" ht="75">
+      <c r="I135" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C136" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>13</v>
@@ -5957,26 +5986,24 @@
       <c r="E136" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F136" s="4" t="s">
-        <v>2</v>
+      <c r="F136" s="6" t="s">
+        <v>304</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H136" s="6"/>
-      <c r="I136" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="45">
+      <c r="I136" s="19"/>
+    </row>
+    <row r="137" spans="1:9" ht="75">
       <c r="A137" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>374</v>
+        <v>36</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D137" s="6" t="s">
         <v>13</v>
@@ -5984,26 +6011,26 @@
       <c r="E137" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="6" t="s">
-        <v>1</v>
+      <c r="F137" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H137" s="6"/>
       <c r="I137" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="60">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="45">
       <c r="A138" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C138" s="11" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D138" s="6" t="s">
         <v>13</v>
@@ -6015,22 +6042,22 @@
         <v>1</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H138" s="6"/>
       <c r="I138" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="75">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="60">
       <c r="A139" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="8" t="s">
-        <v>35</v>
+      <c r="B139" s="7" t="s">
+        <v>375</v>
       </c>
       <c r="C139" s="11" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D139" s="6" t="s">
         <v>13</v>
@@ -6042,22 +6069,22 @@
         <v>1</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H139" s="6"/>
       <c r="I139" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" ht="45">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="75">
       <c r="A140" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>34</v>
+      <c r="B140" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C140" s="11" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="D140" s="6" t="s">
         <v>13</v>
@@ -6066,25 +6093,25 @@
         <v>8</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H140" s="6"/>
       <c r="I140" s="19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="28" customFormat="1" ht="120">
-      <c r="A141" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="B141" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="C141" s="30" t="s">
-        <v>471</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="45">
+      <c r="A141" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C141" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="D141" s="6" t="s">
         <v>13</v>
@@ -6092,56 +6119,56 @@
       <c r="E141" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F141" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="G141" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="H141" s="8"/>
-      <c r="I141" s="23" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="F141" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H141" s="6"/>
+      <c r="I141" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="28" customFormat="1" ht="120">
       <c r="A142" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B142" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="I142" s="23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A143" s="30" t="s">
+        <v>533</v>
+      </c>
+      <c r="B143" s="30" t="s">
+        <v>534</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D143" s="6" t="s">
         <v>536</v>
-      </c>
-      <c r="B142" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="C142" s="30" t="s">
-        <v>538</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G142" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I142" s="23"/>
-    </row>
-    <row r="143" spans="1:9" s="28" customFormat="1" ht="60">
-      <c r="A143" s="30" t="s">
-        <v>540</v>
-      </c>
-      <c r="B143" s="30" t="s">
-        <v>541</v>
-      </c>
-      <c r="C143" s="30" t="s">
-        <v>542</v>
-      </c>
-      <c r="D143" s="6" t="s">
-        <v>539</v>
       </c>
       <c r="E143" s="6" t="s">
         <v>9</v>
@@ -6150,27 +6177,25 @@
         <v>3</v>
       </c>
       <c r="G143" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H143" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="H143" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I143" s="41" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="I143" s="23"/>
+    </row>
+    <row r="144" spans="1:9" s="28" customFormat="1" ht="60">
       <c r="A144" s="30" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B144" s="30" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E144" s="6" t="s">
         <v>9</v>
@@ -6179,27 +6204,27 @@
         <v>3</v>
       </c>
       <c r="G144" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H144" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="H144" s="8" t="s">
-        <v>292</v>
-      </c>
       <c r="I144" s="41" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:9" s="28" customFormat="1" ht="45">
       <c r="A145" s="30" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B145" s="30" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E145" s="6" t="s">
         <v>9</v>
@@ -6208,25 +6233,27 @@
         <v>3</v>
       </c>
       <c r="G145" s="8" t="s">
-        <v>549</v>
+        <v>290</v>
       </c>
       <c r="H145" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="I145" s="23"/>
+        <v>291</v>
+      </c>
+      <c r="I145" s="41" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="146" spans="1:9" s="28" customFormat="1" ht="45">
       <c r="A146" s="30" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B146" s="30" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E146" s="6" t="s">
         <v>9</v>
@@ -6235,48 +6262,75 @@
         <v>3</v>
       </c>
       <c r="G146" s="8" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H146" s="8" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="I146" s="23"/>
     </row>
     <row r="147" spans="1:9" s="28" customFormat="1" ht="45">
       <c r="A147" s="30" t="s">
+        <v>548</v>
+      </c>
+      <c r="B147" s="30" t="s">
+        <v>549</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>550</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="H147" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="I147" s="23"/>
+    </row>
+    <row r="148" spans="1:9" s="28" customFormat="1" ht="45">
+      <c r="A148" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="B148" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="D148" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="B147" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="C147" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="8" t="s">
+      <c r="E148" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="H147" s="8"/>
-      <c r="I147" s="23"/>
-    </row>
-    <row r="148" spans="1:9" s="28" customFormat="1">
-      <c r="A148" s="30"/>
-      <c r="B148" s="30"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="6"/>
-      <c r="E148" s="6"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
+      <c r="G148" s="8" t="s">
+        <v>531</v>
+      </c>
       <c r="H148" s="8"/>
       <c r="I148" s="23"/>
+    </row>
+    <row r="149" spans="1:9" s="28" customFormat="1">
+      <c r="A149" s="30"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6310,50 +6364,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
         <v>390</v>
-      </c>
-      <c r="B1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>381</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="26" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>385</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
